--- a/outputs/single_networks/single_networks.xlsx
+++ b/outputs/single_networks/single_networks.xlsx
@@ -8,115 +8,108 @@
   </bookViews>
   <sheets>
     <sheet name="cg%" sheetId="1" r:id="rId1"/>
-    <sheet name="cg" sheetId="2" r:id="rId2"/>
-    <sheet name="cg_l%" sheetId="3" r:id="rId3"/>
-    <sheet name="cg_l" sheetId="4" r:id="rId4"/>
-    <sheet name="cg_m%" sheetId="5" r:id="rId5"/>
-    <sheet name="cg_m" sheetId="6" r:id="rId6"/>
-    <sheet name="cg_s%" sheetId="7" r:id="rId7"/>
-    <sheet name="cg_s" sheetId="8" r:id="rId8"/>
-    <sheet name="f1_1_correct" sheetId="9" r:id="rId9"/>
-    <sheet name="f1_1_full" sheetId="10" r:id="rId10"/>
-    <sheet name="f1_2_correct" sheetId="11" r:id="rId11"/>
-    <sheet name="f1_2_full" sheetId="12" r:id="rId12"/>
-    <sheet name="fn%" sheetId="13" r:id="rId13"/>
-    <sheet name="fn_2%" sheetId="14" r:id="rId14"/>
-    <sheet name="fn_2_l%" sheetId="15" r:id="rId15"/>
-    <sheet name="fn_2_m%" sheetId="16" r:id="rId16"/>
-    <sheet name="fn_2_s%" sheetId="17" r:id="rId17"/>
-    <sheet name="fn_l%" sheetId="18" r:id="rId18"/>
-    <sheet name="fn_m%" sheetId="19" r:id="rId19"/>
-    <sheet name="fn_s%" sheetId="20" r:id="rId20"/>
-    <sheet name="fp%" sheetId="21" r:id="rId21"/>
-    <sheet name="fp_2%" sheetId="22" r:id="rId22"/>
-    <sheet name="fp_2_l%" sheetId="23" r:id="rId23"/>
-    <sheet name="fp_2_m%" sheetId="24" r:id="rId24"/>
-    <sheet name="fp_2_s%" sheetId="25" r:id="rId25"/>
-    <sheet name="fp_l%" sheetId="26" r:id="rId26"/>
-    <sheet name="fp_m%" sheetId="27" r:id="rId27"/>
-    <sheet name="fp_s%" sheetId="28" r:id="rId28"/>
-    <sheet name="ig%" sheetId="29" r:id="rId29"/>
-    <sheet name="ig" sheetId="30" r:id="rId30"/>
-    <sheet name="ig_l%" sheetId="31" r:id="rId31"/>
-    <sheet name="ig_l" sheetId="32" r:id="rId32"/>
-    <sheet name="ig_m%" sheetId="33" r:id="rId33"/>
-    <sheet name="ig_m" sheetId="34" r:id="rId34"/>
-    <sheet name="ig_s%" sheetId="35" r:id="rId35"/>
-    <sheet name="ig_s" sheetId="36" r:id="rId36"/>
-    <sheet name="ng%" sheetId="37" r:id="rId37"/>
-    <sheet name="ng" sheetId="38" r:id="rId38"/>
-    <sheet name="ng_l%" sheetId="39" r:id="rId39"/>
-    <sheet name="ng_l" sheetId="40" r:id="rId40"/>
-    <sheet name="ng_m%" sheetId="41" r:id="rId41"/>
-    <sheet name="ng_m" sheetId="42" r:id="rId42"/>
-    <sheet name="ng_s%" sheetId="43" r:id="rId43"/>
-    <sheet name="ng_s" sheetId="44" r:id="rId44"/>
-    <sheet name="p_1_correct" sheetId="45" r:id="rId45"/>
-    <sheet name="p_1_full" sheetId="46" r:id="rId46"/>
-    <sheet name="p_2_correct" sheetId="47" r:id="rId47"/>
-    <sheet name="p_2_full" sheetId="48" r:id="rId48"/>
-    <sheet name="r_1_correct" sheetId="49" r:id="rId49"/>
-    <sheet name="r_1_full" sheetId="50" r:id="rId50"/>
-    <sheet name="r_2_correct" sheetId="51" r:id="rId51"/>
-    <sheet name="r_2_full" sheetId="52" r:id="rId52"/>
-    <sheet name="tn%" sheetId="53" r:id="rId53"/>
-    <sheet name="tn_2%" sheetId="54" r:id="rId54"/>
-    <sheet name="tn_2_l%" sheetId="55" r:id="rId55"/>
-    <sheet name="tn_2_m%" sheetId="56" r:id="rId56"/>
-    <sheet name="tn_2_s%" sheetId="57" r:id="rId57"/>
-    <sheet name="tn_l%" sheetId="58" r:id="rId58"/>
-    <sheet name="tn_m%" sheetId="59" r:id="rId59"/>
-    <sheet name="tn_s%" sheetId="60" r:id="rId60"/>
-    <sheet name="tp%" sheetId="61" r:id="rId61"/>
-    <sheet name="tp_2%" sheetId="62" r:id="rId62"/>
-    <sheet name="tp_2_l%" sheetId="63" r:id="rId63"/>
-    <sheet name="tp_2_m%" sheetId="64" r:id="rId64"/>
-    <sheet name="tp_2_s%" sheetId="65" r:id="rId65"/>
-    <sheet name="tp_l%" sheetId="66" r:id="rId66"/>
-    <sheet name="tp_m%" sheetId="67" r:id="rId67"/>
-    <sheet name="tp_s%" sheetId="68" r:id="rId68"/>
+    <sheet name="cg_l%" sheetId="2" r:id="rId2"/>
+    <sheet name="cg_m%" sheetId="3" r:id="rId3"/>
+    <sheet name="cg_s%" sheetId="4" r:id="rId4"/>
+    <sheet name="f1_correct" sheetId="5" r:id="rId5"/>
+    <sheet name="f1_full" sheetId="6" r:id="rId6"/>
+    <sheet name="fn%" sheetId="7" r:id="rId7"/>
+    <sheet name="fn_l%" sheetId="8" r:id="rId8"/>
+    <sheet name="fn_m%" sheetId="9" r:id="rId9"/>
+    <sheet name="fn_s%" sheetId="10" r:id="rId10"/>
+    <sheet name="fp%" sheetId="11" r:id="rId11"/>
+    <sheet name="fp_l%" sheetId="12" r:id="rId12"/>
+    <sheet name="fp_m%" sheetId="13" r:id="rId13"/>
+    <sheet name="fp_s%" sheetId="14" r:id="rId14"/>
+    <sheet name="iou_correct" sheetId="15" r:id="rId15"/>
+    <sheet name="iou_full" sheetId="16" r:id="rId16"/>
+    <sheet name="ng%" sheetId="17" r:id="rId17"/>
+    <sheet name="ng_l%" sheetId="18" r:id="rId18"/>
+    <sheet name="ng_m%" sheetId="19" r:id="rId19"/>
+    <sheet name="ng_s%" sheetId="20" r:id="rId20"/>
+    <sheet name="oa_correct" sheetId="21" r:id="rId21"/>
+    <sheet name="oa_full" sheetId="22" r:id="rId22"/>
+    <sheet name="p_correct" sheetId="23" r:id="rId23"/>
+    <sheet name="p_full" sheetId="24" r:id="rId24"/>
+    <sheet name="r_correct" sheetId="25" r:id="rId25"/>
+    <sheet name="r_full" sheetId="26" r:id="rId26"/>
+    <sheet name="tcg%" sheetId="27" r:id="rId27"/>
+    <sheet name="tcg_l%" sheetId="28" r:id="rId28"/>
+    <sheet name="tcg_m%" sheetId="29" r:id="rId29"/>
+    <sheet name="tcg_s%" sheetId="30" r:id="rId30"/>
+    <sheet name="tig%" sheetId="31" r:id="rId31"/>
+    <sheet name="tig_l%" sheetId="32" r:id="rId32"/>
+    <sheet name="tig_m%" sheetId="33" r:id="rId33"/>
+    <sheet name="tig_s%" sheetId="34" r:id="rId34"/>
+    <sheet name="tn%" sheetId="35" r:id="rId35"/>
+    <sheet name="tn_l%" sheetId="36" r:id="rId36"/>
+    <sheet name="tn_m%" sheetId="37" r:id="rId37"/>
+    <sheet name="tn_s%" sheetId="38" r:id="rId38"/>
+    <sheet name="tng%" sheetId="39" r:id="rId39"/>
+    <sheet name="tng_l%" sheetId="40" r:id="rId40"/>
+    <sheet name="tng_m%" sheetId="41" r:id="rId41"/>
+    <sheet name="tng_s%" sheetId="42" r:id="rId42"/>
+    <sheet name="tp%" sheetId="43" r:id="rId43"/>
+    <sheet name="tp_l%" sheetId="44" r:id="rId44"/>
+    <sheet name="tp_m%" sheetId="45" r:id="rId45"/>
+    <sheet name="tp_s%" sheetId="46" r:id="rId46"/>
+    <sheet name="ugr11%" sheetId="47" r:id="rId47"/>
+    <sheet name="ugr11_l%" sheetId="48" r:id="rId48"/>
+    <sheet name="ugr11_m%" sheetId="49" r:id="rId49"/>
+    <sheet name="ugr11_s%" sheetId="50" r:id="rId50"/>
+    <sheet name="ugr13%" sheetId="51" r:id="rId51"/>
+    <sheet name="ugr13_l%" sheetId="52" r:id="rId52"/>
+    <sheet name="ugr13_m%" sheetId="53" r:id="rId53"/>
+    <sheet name="ugr13_s%" sheetId="54" r:id="rId54"/>
+    <sheet name="ugr31%" sheetId="55" r:id="rId55"/>
+    <sheet name="ugr31_l%" sheetId="56" r:id="rId56"/>
+    <sheet name="ugr31_m%" sheetId="57" r:id="rId57"/>
+    <sheet name="ugr31_s%" sheetId="58" r:id="rId58"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="13">
   <si>
-    <t>Unnamed: 0</t>
+    <t>network_order</t>
   </si>
   <si>
     <t>results</t>
   </si>
   <si>
-    <t>1-0-0-0-0-0-0-0-0-0</t>
+    <t>mask_rcnn_X-101-64x4d-FPN</t>
   </si>
   <si>
-    <t>0-1-0-0-0-0-0-0-0-0</t>
+    <t>cascade_mask_rcnn_X-101-64x4d-FPN</t>
   </si>
   <si>
-    <t>0-0-1-0-0-0-0-0-0-0</t>
+    <t>hybrid_task_cascade_mask_rcnn_X-101-64x4d-FPN</t>
   </si>
   <si>
-    <t>0-0-0-1-0-0-0-0-0-0</t>
+    <t>cascade_mask_rcnn_x101_32x4d_fpn_dconv_c3-c5_1x_coco</t>
   </si>
   <si>
-    <t>0-0-0-0-1-0-0-0-0-0</t>
+    <t>detectors_htc_r101_20e_coco</t>
   </si>
   <si>
-    <t>0-0-0-0-0-1-0-0-0-0</t>
+    <t>gcnet_X-101-FPN_DCN_Cascade_Mask_GC(c3-c5,r4)</t>
   </si>
   <si>
-    <t>0-0-0-0-0-0-1-0-0-0</t>
+    <t>scnet_X-101-64x4d-FPN</t>
   </si>
   <si>
-    <t>0-0-0-0-0-0-0-1-0-0</t>
+    <t>mask_rcnn_r50_fpn_carafe_1x_coco</t>
   </si>
   <si>
-    <t>0-0-0-0-0-0-0-0-1-0</t>
+    <t>mask_rcnn_r101_fpn_gn-all_3x_coco</t>
   </si>
   <si>
-    <t>0-0-0-0-0-0-0-0-0-1</t>
+    <t>mask_rcnn_r101_fpn_gn_ws-all_20_23_24e_coco</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -496,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.68121</v>
+        <v>0.76635</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -507,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.68302</v>
+        <v>0.75559</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -518,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.69679</v>
+        <v>0.7597699999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -529,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.68465</v>
+        <v>0.75142</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -540,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.6770699999999999</v>
+        <v>0.75496</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -551,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.6458199999999999</v>
+        <v>0.74882</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -562,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.6854</v>
+        <v>0.7465000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -573,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.61843</v>
+        <v>0.72432</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -584,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.67015</v>
+        <v>0.68637</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -595,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.68958</v>
+        <v>0.74937</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.61307</v>
+        <v>0.06944</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -638,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.61535</v>
+        <v>0.09708</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -649,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.63</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -660,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.6156700000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -671,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.61267</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -681,9 +674,6 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>0.57728</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -693,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.61686</v>
+        <v>0.14688</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -704,7 +694,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.5539500000000001</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -715,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.60253</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -724,9 +714,6 @@
       </c>
       <c r="B11" t="s">
         <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.62391</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.89158</v>
+        <v>0.05052</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -769,7 +756,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.89285</v>
+        <v>0.04946</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -780,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.89615</v>
+        <v>0.05004</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -791,7 +778,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.891</v>
+        <v>0.0517</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -802,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.89649</v>
+        <v>0.04929</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -813,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.8851</v>
+        <v>0.05175</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -824,7 +811,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.8919</v>
+        <v>0.04925</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -835,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.88774</v>
+        <v>0.05302</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -846,7 +833,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.89074</v>
+        <v>0.04929</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -857,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.89671</v>
+        <v>0.05045</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.60736</v>
+        <v>0.05002</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -900,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.60983</v>
+        <v>0.04892</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -911,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.62443</v>
+        <v>0.04952</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -922,7 +909,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.61003</v>
+        <v>0.05117</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -933,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.60699</v>
+        <v>0.04859</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -944,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.57161</v>
+        <v>0.05121</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -955,7 +942,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.61131</v>
+        <v>0.04877</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -966,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.549</v>
+        <v>0.05256</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -977,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.59693</v>
+        <v>0.04888</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -988,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.61835</v>
+        <v>0.04994</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.05643</v>
+        <v>0.10393</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1031,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.05642</v>
+        <v>0.09549000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1042,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.05336</v>
+        <v>0.09723</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1053,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.05644</v>
+        <v>0.10325</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1064,7 +1051,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.05364</v>
+        <v>0.10919</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1075,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.0606</v>
+        <v>0.11077</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1086,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.05572</v>
+        <v>0.09557</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1097,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.06102</v>
+        <v>0.11462</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1108,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.05766</v>
+        <v>0.0925</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1119,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.05338</v>
+        <v>0.1043</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.0544</v>
+        <v>0.1463</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1162,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.05452</v>
+        <v>0.23335</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1173,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.05155</v>
+        <v>0.13889</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1184,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.0545</v>
+        <v>0.12083</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1195,7 +1182,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.05171</v>
+        <v>0.17188</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1205,9 +1192,6 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>0.05849</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -1217,7 +1201,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.05386</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1228,7 +1212,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.05891</v>
+        <v>0.13009</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1239,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.05561</v>
+        <v>0.14444</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1248,9 +1232,6 @@
       </c>
       <c r="B11" t="s">
         <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.05149</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.05416</v>
+        <v>0.81011</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1293,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.05401</v>
+        <v>0.81219</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1304,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.05103</v>
+        <v>0.81747</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1315,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.05412</v>
+        <v>0.8105599999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1326,7 +1307,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.05121</v>
+        <v>0.81837</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1337,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.05824</v>
+        <v>0.80929</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1348,7 +1329,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.0534</v>
+        <v>0.81811</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1359,7 +1340,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.05854</v>
+        <v>0.79966</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1370,7 +1351,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.05521</v>
+        <v>0.80422</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1381,7 +1362,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.05099</v>
+        <v>0.80884</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.08144</v>
+        <v>0.55186</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1424,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.10325</v>
+        <v>0.55474</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1435,7 +1416,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.10019</v>
+        <v>0.5696099999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1446,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.09531000000000001</v>
+        <v>0.5555600000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1457,7 +1438,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.09667000000000001</v>
+        <v>0.56433</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1468,7 +1449,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.09447</v>
+        <v>0.55409</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1479,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.10045</v>
+        <v>0.55392</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1490,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.10149</v>
+        <v>0.5164299999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1501,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.09697</v>
+        <v>0.49735</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1512,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.09433</v>
+        <v>0.54204</v>
       </c>
     </row>
   </sheetData>
@@ -1544,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.06944</v>
+        <v>0.23365</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1555,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.09708</v>
+        <v>0.24441</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1566,7 +1547,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.075</v>
+        <v>0.24023</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1576,6 +1557,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5">
+        <v>0.24858</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -1585,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.14688</v>
+        <v>0.24504</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1596,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.0375</v>
+        <v>0.25118</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1607,7 +1591,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.05</v>
+        <v>0.2535</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1618,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.075</v>
+        <v>0.27568</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1628,6 +1612,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10">
+        <v>0.31363</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
@@ -1637,7 +1624,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.125</v>
+        <v>0.25063</v>
       </c>
     </row>
   </sheetData>
@@ -1669,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.05611</v>
+        <v>0.21131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1680,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.05585</v>
+        <v>0.22315</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1691,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.05279</v>
+        <v>0.21911</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1702,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.056</v>
+        <v>0.22728</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1713,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.05308</v>
+        <v>0.22456</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1724,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.06032</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1735,7 +1722,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.05518</v>
+        <v>0.23257</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1746,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.0606</v>
+        <v>0.25419</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1757,7 +1744,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.05711</v>
+        <v>0.29411</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1768,7 +1755,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.05284</v>
+        <v>0.22916</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.08649</v>
+        <v>0.66977</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1811,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.10862</v>
+        <v>0.63636</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1822,7 +1809,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.10349</v>
+        <v>0.61364</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1833,7 +1820,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.09977999999999999</v>
+        <v>0.63927</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1844,7 +1831,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.10352</v>
+        <v>0.59729</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1855,7 +1842,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.09574000000000001</v>
+        <v>0.64904</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1866,7 +1853,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.10415</v>
+        <v>0.62332</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1877,7 +1864,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.10058</v>
+        <v>0.72772</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1888,7 +1875,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.1025</v>
+        <v>0.69231</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1899,7 +1886,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.09794</v>
+        <v>0.64186</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>8259</v>
+        <v>0.78869</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1942,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>8143</v>
+        <v>0.77685</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1953,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>8188</v>
+        <v>0.78089</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1964,7 +1951,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>8070</v>
+        <v>0.77272</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1975,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>8045</v>
+        <v>0.77544</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1986,7 +1973,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>7806</v>
+        <v>0.7699</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1997,7 +1984,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>8098</v>
+        <v>0.7674299999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2008,7 +1995,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>7397</v>
+        <v>0.74581</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2019,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>8076</v>
+        <v>0.70589</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2030,7 +2017,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>8137</v>
+        <v>0.77084</v>
       </c>
     </row>
   </sheetData>
@@ -2062,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.06571</v>
+        <v>0.9837</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2073,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.07062</v>
+        <v>0.97814</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2084,7 +2071,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.035</v>
+        <v>0.98907</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2095,7 +2082,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.05</v>
+        <v>0.98907</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2106,7 +2093,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.06643</v>
+        <v>0.98895</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2117,7 +2104,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.04405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2128,7 +2115,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.03357</v>
+        <v>0.98907</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2139,7 +2126,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.08244</v>
+        <v>0.98919</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2150,7 +2137,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.98378</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2161,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.04836</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2193,7 +2180,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.04425</v>
+        <v>0.89508</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2204,7 +2191,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.04338</v>
+        <v>0.89602</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2215,7 +2202,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.0439</v>
+        <v>0.89842</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2226,7 +2213,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.04551</v>
+        <v>0.89444</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2237,7 +2224,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.04299</v>
+        <v>0.89923</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2248,7 +2235,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.04627</v>
+        <v>0.89375</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2259,7 +2246,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.04553</v>
+        <v>0.89904</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2270,7 +2257,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.04329</v>
+        <v>0.88849</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2281,7 +2268,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.04422</v>
+        <v>0.89179</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2292,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.04321</v>
+        <v>0.89394</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.05052</v>
+        <v>0.6097399999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2335,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.04946</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2346,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.05004</v>
+        <v>0.62601</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2357,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.05175</v>
+        <v>0.61305</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2368,7 +2355,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.04925</v>
+        <v>0.62009</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2379,7 +2366,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.05302</v>
+        <v>0.61191</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2390,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.0517</v>
+        <v>0.60872</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2401,7 +2388,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.04929</v>
+        <v>0.5738</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2412,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.05045</v>
+        <v>0.5515099999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2423,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.04929</v>
+        <v>0.59907</v>
       </c>
     </row>
   </sheetData>
@@ -2455,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.05002</v>
+        <v>0.90104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2466,7 +2453,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.04892</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2477,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.04952</v>
+        <v>0.90296</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2488,7 +2475,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.05121</v>
+        <v>0.89964</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2499,7 +2486,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.04877</v>
+        <v>0.9040899999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2510,7 +2497,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.05256</v>
+        <v>0.89939</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2521,7 +2508,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.05117</v>
+        <v>0.90422</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2532,7 +2519,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.04888</v>
+        <v>0.89667</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2543,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.04994</v>
+        <v>0.9030899999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2554,7 +2541,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.04859</v>
+        <v>0.90156</v>
       </c>
     </row>
   </sheetData>
@@ -2586,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.10393</v>
+        <v>0.6138</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2597,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.09549000000000001</v>
+        <v>0.61677</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2608,7 +2595,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.09723</v>
+        <v>0.62918</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2619,7 +2606,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.11077</v>
+        <v>0.61661</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2630,7 +2617,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.09557</v>
+        <v>0.62344</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2641,7 +2628,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.11462</v>
+        <v>0.61577</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2652,7 +2639,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.10325</v>
+        <v>0.6122300000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2663,7 +2650,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.0925</v>
+        <v>0.57909</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2674,7 +2661,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.1043</v>
+        <v>0.55849</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2685,7 +2672,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.10919</v>
+        <v>0.6041800000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2717,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.1463</v>
+        <v>0.89172</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2728,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.23335</v>
+        <v>0.8922099999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2739,7 +2726,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.13889</v>
+        <v>0.89836</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2749,6 +2736,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5">
+        <v>0.8935</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -2758,7 +2748,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.03125</v>
+        <v>0.89825</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2769,7 +2759,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.13009</v>
+        <v>0.89212</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2780,7 +2770,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.12083</v>
+        <v>0.89806</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2791,7 +2781,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.14444</v>
+        <v>0.88384</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2801,6 +2791,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10">
+        <v>0.88301</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
@@ -2810,7 +2803,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.17188</v>
+        <v>0.88981</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.04369</v>
+        <v>0.60745</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2853,7 +2846,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.04291</v>
+        <v>0.6094000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2864,7 +2857,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.04337</v>
+        <v>0.62597</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2875,7 +2868,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.04497</v>
+        <v>0.6124000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2886,7 +2879,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.04257</v>
+        <v>0.61941</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2897,7 +2890,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.04581</v>
+        <v>0.6108</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2908,7 +2901,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.04502</v>
+        <v>0.60805</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2919,7 +2912,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.04283</v>
+        <v>0.5708</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2930,7 +2923,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.04365</v>
+        <v>0.54608</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2941,7 +2934,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.04248</v>
+        <v>0.59631</v>
       </c>
     </row>
   </sheetData>
@@ -2973,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.0915</v>
+        <v>0.68121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2984,7 +2977,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.07983999999999999</v>
+        <v>0.68302</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2995,7 +2988,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.08366</v>
+        <v>0.69679</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3006,7 +2999,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.09034</v>
+        <v>0.6854</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3017,7 +3010,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.07706</v>
+        <v>0.68958</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3028,7 +3021,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.09798</v>
+        <v>0.68465</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3039,7 +3032,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.08566</v>
+        <v>0.6770699999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3050,7 +3043,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.08391</v>
+        <v>0.6458199999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3061,7 +3054,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.08873</v>
+        <v>0.61843</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3072,7 +3065,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.09401</v>
+        <v>0.67015</v>
       </c>
     </row>
   </sheetData>
@@ -3104,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.15714</v>
+        <v>0.70179</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3115,7 +3108,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.13539</v>
+        <v>0.70286</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3126,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.14889</v>
+        <v>0.71697</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3137,7 +3130,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.19167</v>
+        <v>0.70597</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3148,7 +3141,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.09492</v>
+        <v>0.70996</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3159,7 +3152,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.12579</v>
+        <v>0.7044</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3170,7 +3163,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.1227</v>
+        <v>0.69669</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3181,7 +3174,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.11012</v>
+        <v>0.66532</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3192,7 +3185,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.63778</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3203,7 +3196,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.16837</v>
+        <v>0.69154</v>
       </c>
     </row>
   </sheetData>
@@ -3235,7 +3228,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.1111</v>
+        <v>0.25912</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3246,7 +3239,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.09604</v>
+        <v>0.29412</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3257,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.08289000000000001</v>
+        <v>0.32075</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3268,7 +3261,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.08569</v>
+        <v>0.29368</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3279,7 +3272,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.093</v>
+        <v>0.3213</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3290,7 +3283,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.10838</v>
+        <v>0.29084</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3301,7 +3294,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.08785</v>
+        <v>0.31698</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3312,7 +3305,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.09898999999999999</v>
+        <v>0.21739</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3323,7 +3316,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.10572</v>
+        <v>0.22857</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3334,7 +3327,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.08661000000000001</v>
+        <v>0.26644</v>
       </c>
     </row>
   </sheetData>
@@ -3366,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.70141</v>
+        <v>0.33023</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3377,7 +3370,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.70263</v>
+        <v>0.36364</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3388,7 +3381,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.71667</v>
+        <v>0.38636</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3399,7 +3392,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.70406</v>
+        <v>0.36073</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3410,7 +3403,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.69648</v>
+        <v>0.40271</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3421,7 +3414,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.66503</v>
+        <v>0.35096</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3432,7 +3425,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.70558</v>
+        <v>0.37668</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3443,7 +3436,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.63737</v>
+        <v>0.27228</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3454,7 +3447,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.69092</v>
+        <v>0.30769</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3465,7 +3458,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.70958</v>
+        <v>0.35814</v>
       </c>
     </row>
   </sheetData>
@@ -3497,7 +3490,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1347</v>
+        <v>0.01604</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3508,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1145</v>
+        <v>0.02174</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3519,7 +3512,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>974</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3530,7 +3523,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1010</v>
+        <v>0.01053</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3541,7 +3534,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1105</v>
+        <v>0.01053</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3552,7 +3545,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3563,7 +3556,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>1038</v>
+        <v>0.01036</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3574,7 +3567,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>1184</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3585,7 +3578,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>1274</v>
+        <v>0.01596</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3596,7 +3589,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>1022</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3628,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.11032</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3639,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.09531000000000001</v>
+        <v>0.09604</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3650,7 +3643,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.08195</v>
+        <v>0.08289000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3661,7 +3654,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.08519</v>
+        <v>0.08785</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3672,7 +3665,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.09224</v>
+        <v>0.08661000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3683,7 +3676,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.10802</v>
+        <v>0.08569</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3694,7 +3687,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.08649999999999999</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3705,7 +3698,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.09660000000000001</v>
+        <v>0.10838</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3716,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.10308</v>
+        <v>0.09898999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3727,7 +3720,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.08456</v>
+        <v>0.10572</v>
       </c>
     </row>
   </sheetData>
@@ -3759,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1285</v>
+        <v>0.11018</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3770,7 +3763,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1092</v>
+        <v>0.09524000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3781,7 +3774,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>925</v>
+        <v>0.08187</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3792,7 +3785,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>966</v>
+        <v>0.08638999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3803,7 +3796,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1053</v>
+        <v>0.08444</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3814,7 +3807,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1257</v>
+        <v>0.08509</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3825,7 +3818,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>981</v>
+        <v>0.09217</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3836,7 +3829,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>1109</v>
+        <v>0.10792</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3847,7 +3840,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>1190</v>
+        <v>0.09649000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3858,7 +3851,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>957</v>
+        <v>0.10288</v>
       </c>
     </row>
   </sheetData>
@@ -3890,7 +3883,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.20557</v>
+        <v>0.21533</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3901,7 +3894,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.18705</v>
+        <v>0.19118</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3912,7 +3905,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.16423</v>
+        <v>0.16981</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3923,7 +3916,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.16538</v>
+        <v>0.18587</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3934,7 +3927,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.15556</v>
+        <v>0.20217</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3945,7 +3938,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.19466</v>
+        <v>0.17131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3956,7 +3949,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.17794</v>
+        <v>0.15849</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3967,7 +3960,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.24658</v>
+        <v>0.20158</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3978,7 +3971,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.23794</v>
+        <v>0.25714</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3989,7 +3982,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.19512</v>
+        <v>0.25606</v>
       </c>
     </row>
   </sheetData>
@@ -4021,7 +4014,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>0.01604</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4032,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>0.00543</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4043,7 +4036,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>0.02139</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4054,7 +4047,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>0.03684</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4065,7 +4058,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>0.04737</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4076,7 +4069,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>0.00546</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4087,7 +4080,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>0.05181</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4098,7 +4091,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>72</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4109,7 +4102,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>0.01596</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4120,7 +4113,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>56</v>
+        <v>0.05128</v>
       </c>
     </row>
   </sheetData>
@@ -4152,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.01587</v>
+        <v>0.43791</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4163,7 +4156,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.00535</v>
+        <v>0.43698</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4174,7 +4167,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.02105</v>
+        <v>0.4355</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4185,7 +4178,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.00535</v>
+        <v>0.43399</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4196,7 +4189,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.05102</v>
+        <v>0.43714</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4207,7 +4200,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.01064</v>
+        <v>0.43419</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4218,7 +4211,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.03627</v>
+        <v>0.43748</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4229,7 +4222,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.01587</v>
+        <v>0.43467</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4240,7 +4233,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.05102</v>
+        <v>0.43807</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4251,7 +4244,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.04615</v>
+        <v>0.43678</v>
       </c>
     </row>
   </sheetData>
@@ -4283,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0.43906</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4294,7 +4287,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.43841</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4305,7 +4298,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>0.43687</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4316,7 +4309,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.43527</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4327,7 +4320,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>0.43871</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4338,7 +4331,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0.43533</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4349,7 +4342,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>0.43882</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4360,7 +4353,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0.43562</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4371,7 +4364,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>0.43926</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4382,7 +4375,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>0.43799</v>
       </c>
     </row>
   </sheetData>
@@ -4414,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.20769</v>
+        <v>0.31094</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4425,7 +4418,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.22094</v>
+        <v>0.30721</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4436,7 +4429,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.22032</v>
+        <v>0.30841</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4447,7 +4440,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.22966</v>
+        <v>0.30679</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4458,7 +4451,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.22993</v>
+        <v>0.30225</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4469,7 +4462,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.2458</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4480,7 +4473,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.22675</v>
+        <v>0.3141</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4491,7 +4484,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.28259</v>
+        <v>0.30784</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4502,7 +4495,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.22413</v>
+        <v>0.31035</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4513,7 +4506,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.22381</v>
+        <v>0.31099</v>
       </c>
     </row>
   </sheetData>
@@ -4545,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2518</v>
+        <v>0.28519</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4556,7 +4549,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2634</v>
+        <v>0.14669</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4567,7 +4560,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2589</v>
+        <v>0.31667</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4578,7 +4571,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>2707</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4589,7 +4582,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>2732</v>
+        <v>0.13542</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4599,9 +4592,6 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>2971</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -4611,7 +4601,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>2679</v>
+        <v>0.29063</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4622,7 +4612,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3380</v>
+        <v>0.23704</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4633,7 +4623,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>2701</v>
+        <v>0.26944</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4642,9 +4632,6 @@
       </c>
       <c r="B11" t="s">
         <v>11</v>
-      </c>
-      <c r="C11">
-        <v>2641</v>
       </c>
     </row>
   </sheetData>
@@ -4676,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.18827</v>
+        <v>0.20769</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4687,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.20206</v>
+        <v>0.22094</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4698,7 +4685,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.20138</v>
+        <v>0.22032</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4709,7 +4696,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.21076</v>
+        <v>0.22675</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4720,7 +4707,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.21128</v>
+        <v>0.22381</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4731,7 +4718,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.22695</v>
+        <v>0.22966</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4742,7 +4729,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.20792</v>
+        <v>0.22993</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4753,7 +4740,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.26603</v>
+        <v>0.2458</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4764,7 +4751,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.20599</v>
+        <v>0.28259</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4775,7 +4762,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.20587</v>
+        <v>0.22413</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +4794,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>8170</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4818,7 +4805,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>8050</v>
+        <v>0.02186</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4829,7 +4816,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>8089</v>
+        <v>0.01093</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4840,7 +4827,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>7984</v>
+        <v>0.01093</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4851,7 +4838,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>7951</v>
+        <v>0.01105</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4862,7 +4849,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>7739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4873,7 +4860,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>8002</v>
+        <v>0.01093</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4884,7 +4871,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>7317</v>
+        <v>0.01081</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4895,7 +4882,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>7976</v>
+        <v>0.01622</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4906,7 +4893,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>8031</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4938,7 +4925,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2193</v>
+        <v>0.18803</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4949,7 +4936,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2315</v>
+        <v>0.2019</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4960,7 +4947,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2273</v>
+        <v>0.20117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4971,7 +4958,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>2390</v>
+        <v>0.20764</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4982,7 +4969,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>2412</v>
+        <v>0.20559</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4993,7 +4980,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>2641</v>
+        <v>0.21052</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5004,7 +4991,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>2358</v>
+        <v>0.21113</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5015,7 +5002,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3054</v>
+        <v>0.22675</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5026,7 +5013,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>2378</v>
+        <v>0.26573</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5037,7 +5024,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>2330</v>
+        <v>0.20558</v>
       </c>
     </row>
   </sheetData>
@@ -5069,7 +5056,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.50174</v>
+        <v>0.52555</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5080,7 +5067,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.5036</v>
+        <v>0.51471</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5091,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.4927</v>
+        <v>0.50943</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5102,7 +5089,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.51923</v>
+        <v>0.52045</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5113,7 +5100,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.51481</v>
+        <v>0.47653</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5124,7 +5111,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.56107</v>
+        <v>0.5378500000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5135,7 +5122,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.49822</v>
+        <v>0.5245300000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5146,7 +5133,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.49315</v>
+        <v>0.58103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5157,7 +5144,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.44373</v>
+        <v>0.51429</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5168,7 +5155,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.45993</v>
+        <v>0.47751</v>
       </c>
     </row>
   </sheetData>
@@ -5200,7 +5187,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>144</v>
+        <v>0.96791</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5211,7 +5198,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>140</v>
+        <v>0.97283</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5222,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>135</v>
+        <v>0.96791</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5233,7 +5220,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>135</v>
+        <v>0.95263</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5244,7 +5231,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>139</v>
+        <v>0.94211</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5255,7 +5242,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>147</v>
+        <v>0.99454</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5266,7 +5253,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>140</v>
+        <v>0.93782</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5277,7 +5264,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>144</v>
+        <v>0.97861</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5288,7 +5275,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>138</v>
+        <v>0.96809</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5299,7 +5286,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>132</v>
+        <v>0.94872</v>
       </c>
     </row>
   </sheetData>
@@ -5331,7 +5318,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.95767</v>
+        <v>0.45717</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5342,7 +5329,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.95722</v>
+        <v>0.45904</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5353,7 +5340,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.95263</v>
+        <v>0.46291</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5364,7 +5351,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.97326</v>
+        <v>0.46045</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5375,7 +5362,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.92347</v>
+        <v>0.46208</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5386,7 +5373,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.9734</v>
+        <v>0.45956</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5397,7 +5384,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.93782</v>
+        <v>0.46156</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5408,7 +5395,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.96296</v>
+        <v>0.45381</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5419,7 +5406,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.9438800000000001</v>
+        <v>0.45372</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5430,7 +5417,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.91795</v>
+        <v>0.45716</v>
       </c>
     </row>
   </sheetData>
@@ -5462,7 +5449,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>181</v>
+        <v>0.45675</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5473,7 +5460,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>179</v>
+        <v>0.45866</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5484,7 +5471,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>181</v>
+        <v>0.46258</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5495,7 +5482,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>182</v>
+        <v>0.46015</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5506,7 +5493,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>181</v>
+        <v>0.4617</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5517,7 +5504,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>183</v>
+        <v>0.45934</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5528,7 +5515,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>181</v>
+        <v>0.46121</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5539,7 +5526,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>182</v>
+        <v>0.45357</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5550,7 +5537,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>185</v>
+        <v>0.45333</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5561,7 +5548,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>179</v>
+        <v>0.45686</v>
       </c>
     </row>
   </sheetData>
@@ -5593,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.91604</v>
+        <v>0.5037</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5604,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.91743</v>
+        <v>0.49405</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5615,7 +5602,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.91722</v>
+        <v>0.49417</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5626,7 +5613,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.91409</v>
+        <v>0.48951</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5637,7 +5624,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.91921</v>
+        <v>0.49423</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5648,7 +5635,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.9124</v>
+        <v>0.48391</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5659,7 +5646,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.91413</v>
+        <v>0.49365</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5670,7 +5657,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.91754</v>
+        <v>0.48308</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5681,7 +5668,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.91654</v>
+        <v>0.49566</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5692,7 +5679,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.91861</v>
+        <v>0.48774</v>
       </c>
     </row>
   </sheetData>
@@ -5724,7 +5711,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.62401</v>
+        <v>0.49907</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5735,7 +5722,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.62663</v>
+        <v>0.52288</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5746,7 +5733,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.63911</v>
+        <v>0.46944</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5757,7 +5744,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.62583</v>
+        <v>0.50417</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5768,7 +5755,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.62237</v>
+        <v>0.56771</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5778,9 +5765,6 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>0.5892500000000001</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -5790,7 +5774,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.62654</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5801,7 +5785,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.56743</v>
+        <v>0.59537</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5812,7 +5796,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.61422</v>
+        <v>0.51111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5821,9 +5805,6 @@
       </c>
       <c r="B11" t="s">
         <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.63345</v>
       </c>
     </row>
   </sheetData>
@@ -5855,7 +5836,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.90104</v>
+        <v>0.46797</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5866,7 +5847,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.903</v>
+        <v>0.46408</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5877,7 +5858,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.90296</v>
+        <v>0.43515</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5888,7 +5869,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.89939</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5899,7 +5880,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.90422</v>
+        <v>0.45017</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5910,7 +5891,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.89667</v>
+        <v>0.46059</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5921,7 +5902,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.89964</v>
+        <v>0.47694</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5932,7 +5913,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.9030899999999999</v>
+        <v>0.54842</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5943,7 +5924,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.90156</v>
+        <v>0.6170099999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5954,7 +5935,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.9040899999999999</v>
+        <v>0.4922</v>
       </c>
     </row>
   </sheetData>
@@ -5986,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.6138</v>
+        <v>0.42492</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5997,7 +5978,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.61677</v>
+        <v>0.42276</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6008,7 +5989,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.62918</v>
+        <v>0.39477</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6019,7 +6000,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.61577</v>
+        <v>0.41649</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6030,7 +6011,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.6122300000000001</v>
+        <v>0.40853</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6041,7 +6022,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.57909</v>
+        <v>0.41966</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6052,7 +6033,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.61661</v>
+        <v>0.43536</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6063,7 +6044,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.55849</v>
+        <v>0.50303</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6074,7 +6055,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.6041800000000001</v>
+        <v>0.56794</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6085,7 +6066,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.62344</v>
+        <v>0.44606</v>
       </c>
     </row>
   </sheetData>
@@ -6117,7 +6098,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.89181</v>
+        <v>2.85915</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6128,7 +6109,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.89231</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6139,7 +6120,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.89843</v>
+        <v>2.11765</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6150,7 +6131,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.8922099999999999</v>
+        <v>2.40506</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6161,7 +6142,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.89814</v>
+        <v>2.11236</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6172,7 +6153,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.88393</v>
+        <v>2.43836</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6183,7 +6164,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.89356</v>
+        <v>2.15476</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6194,7 +6175,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.88308</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6205,7 +6186,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.8899</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6216,7 +6197,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.89833</v>
+        <v>2.75325</v>
       </c>
     </row>
   </sheetData>
@@ -6248,7 +6229,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.29268</v>
+        <v>0.89158</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6259,7 +6240,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.30935</v>
+        <v>0.89285</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6270,7 +6251,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.34307</v>
+        <v>0.89615</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6281,7 +6262,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.31538</v>
+        <v>0.8919</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6292,7 +6273,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.32963</v>
+        <v>0.89671</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6303,7 +6284,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.24427</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6314,7 +6295,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.32384</v>
+        <v>0.89649</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6325,7 +6306,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.26027</v>
+        <v>0.8851</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6336,7 +6317,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.31833</v>
+        <v>0.88774</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6347,7 +6328,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.34495</v>
+        <v>0.89074</v>
       </c>
     </row>
   </sheetData>
@@ -6379,7 +6360,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.60751</v>
+        <v>61.33333</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6390,7 +6371,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.60947</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6401,7 +6382,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.62602</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6412,7 +6393,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.61085</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6423,7 +6404,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.60811</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6433,8 +6414,8 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>0.57086</v>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6445,7 +6426,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.61245</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6456,7 +6437,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.54612</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6467,7 +6448,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.59637</v>
+        <v>61.66667</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6477,8 +6458,8 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>0.61946</v>
+      <c r="C11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -6510,7 +6491,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.89172</v>
+        <v>0.79416</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6521,7 +6502,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.8922099999999999</v>
+        <v>0.7453</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6532,7 +6513,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.89836</v>
+        <v>0.67306</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6543,7 +6524,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.89212</v>
+        <v>0.71536</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6554,7 +6535,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.89806</v>
+        <v>0.70136</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6565,7 +6546,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.88384</v>
+        <v>0.7109</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6576,7 +6557,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.8935</v>
+        <v>0.75165</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6587,7 +6568,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.88301</v>
+        <v>0.88406</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6598,7 +6579,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.88981</v>
+        <v>0.93714</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6609,7 +6590,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.89825</v>
+        <v>0.8077</v>
       </c>
     </row>
   </sheetData>
@@ -6641,7 +6622,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.60745</v>
+        <v>0.73891</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6652,7 +6633,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.6094000000000001</v>
+        <v>0.69376</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6663,7 +6644,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.62597</v>
+        <v>0.62313</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6674,7 +6655,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.6108</v>
+        <v>0.66122</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6685,7 +6666,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.60805</v>
+        <v>0.64641</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6696,7 +6677,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.5708</v>
+        <v>0.66125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6707,7 +6688,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.6124000000000001</v>
+        <v>0.69996</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6718,7 +6699,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.54608</v>
+        <v>0.82746</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6729,7 +6710,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.59631</v>
+        <v>0.87053</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6740,7 +6721,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.61941</v>
+        <v>0.74359</v>
       </c>
     </row>
   </sheetData>
@@ -6772,7 +6753,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.42153</v>
+        <v>4.52113</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6783,7 +6764,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.42183</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6794,7 +6775,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.42075</v>
+        <v>3.17647</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6805,7 +6786,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.41892</v>
+        <v>3.67089</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6816,7 +6797,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.42139</v>
+        <v>3.37079</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6827,7 +6808,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.41869</v>
+        <v>3.61644</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6838,7 +6819,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.41906</v>
+        <v>3.15476</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6849,7 +6830,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.42235</v>
+        <v>5.45455</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6860,7 +6841,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.42037</v>
+        <v>5.625</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6871,7 +6852,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.42166</v>
+        <v>4.67532</v>
       </c>
     </row>
   </sheetData>
@@ -6903,7 +6884,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.43791</v>
+        <v>63.33333</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6914,7 +6895,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.43698</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6925,7 +6906,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.4355</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6936,7 +6917,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.43419</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6947,7 +6928,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.43748</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6957,8 +6938,8 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>0.43467</v>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6969,7 +6950,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.43399</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6980,7 +6961,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.43807</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6991,7 +6972,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.43678</v>
+        <v>63.66667</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7001,8 +6982,8 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>0.43714</v>
+      <c r="C11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7034,7 +7015,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.43906</v>
+        <v>1.07773</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7045,7 +7026,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.43841</v>
+        <v>1.11102</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7056,7 +7037,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.43687</v>
+        <v>1.06754</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7067,7 +7048,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.43533</v>
+        <v>1.12065</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7078,7 +7059,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.43882</v>
+        <v>1.0993</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7089,7 +7070,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.43562</v>
+        <v>1.13147</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7100,7 +7081,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.43527</v>
+        <v>1.15612</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7111,7 +7092,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.43926</v>
+        <v>1.30963</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7122,7 +7103,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.43799</v>
+        <v>1.53089</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7133,7 +7114,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.43871</v>
+        <v>1.16109</v>
       </c>
     </row>
   </sheetData>
@@ -7165,7 +7146,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.31094</v>
+        <v>0.96078</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7176,7 +7157,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.30721</v>
+        <v>0.99727</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7187,7 +7168,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.30841</v>
+        <v>0.9559299999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7198,7 +7179,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.31</v>
+        <v>1.00474</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7209,7 +7190,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.3141</v>
+        <v>0.9877</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7220,7 +7201,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.30784</v>
+        <v>1.01738</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7231,7 +7212,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.30679</v>
+        <v>1.04146</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7242,7 +7223,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.31035</v>
+        <v>1.18467</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7253,7 +7234,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.31099</v>
+        <v>1.40123</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7264,7 +7245,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.30225</v>
+        <v>1.04063</v>
       </c>
     </row>
   </sheetData>
@@ -7296,7 +7277,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.28519</v>
+        <v>6.91549</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7307,7 +7288,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.14669</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7318,7 +7299,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.31667</v>
+        <v>5.29412</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7328,6 +7309,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5">
+        <v>5.94937</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -7337,7 +7321,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.29063</v>
+        <v>5.07865</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7348,7 +7332,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.23704</v>
+        <v>6.13699</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7359,7 +7343,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.325</v>
+        <v>5.46429</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7370,7 +7354,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.26944</v>
+        <v>8.945449999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7380,6 +7364,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10">
+        <v>7.875</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
@@ -7389,7 +7376,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.13542</v>
+        <v>6.33766</v>
       </c>
     </row>
   </sheetData>
@@ -7421,7 +7408,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.42317</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7432,7 +7419,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.42345</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7443,7 +7430,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.42241</v>
+        <v>273.5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7454,7 +7441,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.42035</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7465,7 +7452,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.42295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7475,8 +7462,8 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>0.41991</v>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7487,7 +7474,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.42075</v>
+        <v>276.5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7498,7 +7485,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.42384</v>
+        <v>275.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7509,7 +7496,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.42205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7519,139 +7506,8 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>0.42357</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0.27732</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.29389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.28781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0.29368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0.29438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.28259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.2832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0.29207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0.28846</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.28458</v>
+      <c r="C11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7683,7 +7539,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>84</v>
+        <v>0.60736</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7694,7 +7550,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>86</v>
+        <v>0.60983</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7705,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>94</v>
+        <v>0.62443</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7716,7 +7572,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>0.61131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7727,7 +7583,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>0.61835</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7738,7 +7594,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>64</v>
+        <v>0.61003</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7749,7 +7605,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>91</v>
+        <v>0.60699</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7760,7 +7616,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>76</v>
+        <v>0.57161</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7771,7 +7627,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7782,1180 +7638,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0.16619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.13511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.22167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0.13125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0.20175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.17143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.1973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0.17718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.17132</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0.4778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.47837</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.48199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0.47913</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0.48198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.47444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.47969</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0.47334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0.47775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.48175</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0.45717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.45904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.46291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0.45956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0.46156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.45381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.46045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0.45372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0.45716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.46208</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0.45675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.45866</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.46258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0.45934</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0.46121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.45357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.46015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0.45333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0.45686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.4617</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0.5037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.49405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.49417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0.48391</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0.49365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.48308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.48951</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0.49566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0.48774</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.49423</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0.49907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.52288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.46944</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0.53125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.59537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.50417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0.51111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.56771</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0.47703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.47779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.48142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0.47868</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0.4814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.47396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.47905</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0.47273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0.47719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.48112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0.54469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.51766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.52504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0.5162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0.52504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.52369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0.52344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0.5203100000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.5234799999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0.61095</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.65888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.59444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0.62708</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0.6369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.65873</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.6464299999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0.63026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.6119599999999999</v>
+        <v>0.59693</v>
       </c>
     </row>
   </sheetData>
@@ -8987,7 +7670,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.02646</v>
+        <v>0.0544</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8998,7 +7681,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.03743</v>
+        <v>0.05452</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9009,7 +7692,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.02632</v>
+        <v>0.05155</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9020,7 +7703,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.02139</v>
+        <v>0.05386</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9031,7 +7714,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.02551</v>
+        <v>0.05149</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9042,7 +7725,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.01596</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9053,7 +7736,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.02591</v>
+        <v>0.05171</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9064,7 +7747,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.02116</v>
+        <v>0.05849</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9075,7 +7758,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.0051</v>
+        <v>0.05891</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9086,7 +7769,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.0359</v>
+        <v>0.05561</v>
       </c>
     </row>
   </sheetData>
@@ -9118,7 +7801,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0.05416</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9129,7 +7812,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>0.05401</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9140,7 +7823,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0.05103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9151,7 +7834,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>0.0534</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9162,7 +7845,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>0.05099</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9173,7 +7856,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0.05412</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9184,7 +7867,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>0.05121</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9195,7 +7878,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>0.05824</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9206,7 +7889,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.05854</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9217,7 +7900,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>0.05521</v>
       </c>
     </row>
   </sheetData>
@@ -9249,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.89997</v>
+        <v>0.08144</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9260,7 +7943,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.9009200000000001</v>
+        <v>0.10325</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9271,7 +7954,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.90415</v>
+        <v>0.10019</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9282,7 +7965,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.89925</v>
+        <v>0.10045</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9293,7 +7976,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.90488</v>
+        <v>0.09433</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9304,7 +7987,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.8938700000000001</v>
+        <v>0.09531000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9315,7 +7998,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.89999</v>
+        <v>0.09667000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9326,7 +8009,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.89575</v>
+        <v>0.09447</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9337,7 +8020,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.8990899999999999</v>
+        <v>0.10149</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9348,7 +8031,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.90478</v>
+        <v>0.09697</v>
       </c>
     </row>
   </sheetData>
